--- a/webservice/data/testcases.xlsx
+++ b/webservice/data/testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="sendmcode" sheetId="1" state="visible" r:id="rId1"/>
@@ -509,7 +509,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -810,8 +810,8 @@
           <t>用户名错误</t>
         </is>
       </c>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
       <c r="I2" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="36.75" r="3">
@@ -1095,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1185,8 +1185,8 @@
           <t>用户ID错误</t>
         </is>
       </c>
-      <c r="G2" s="18" t="n"/>
-      <c r="H2" s="18" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
       <c r="I2" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="3">
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1855,5 +1855,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>